--- a/Adult Income Simple RF/Feature_importance_diff_50_5_9495_2.xlsx
+++ b/Adult Income Simple RF/Feature_importance_diff_50_5_9495_2.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -465,18 +465,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0388952838863837</v>
+        <v>0.1881820243760906</v>
       </c>
       <c r="D2" t="n">
-        <v>0.631317952847835</v>
+        <v>0.6899100952131247</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5924226689614512</v>
+        <v>0.5017280708370342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -484,75 +484,75 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1995013601588038</v>
+        <v>0.170400923152653</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02528171361739483</v>
+        <v>0.02496489249006029</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1742196465414089</v>
+        <v>-0.1454360306625927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>remainder__fnlwgt</t>
+          <t>cat__marital-status_Married-civ-spouse</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1619248824988501</v>
+        <v>0.1646393214054812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001724835104619675</v>
+        <v>0.0322989689944875</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1602000473942305</v>
+        <v>-0.1323403524109937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-civ-spouse</t>
+          <t>cat__relationship_Husband</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2088817420302058</v>
+        <v>0.1124489613308631</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05591730970621453</v>
+        <v>0.02991491578904642</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1529644323239912</v>
+        <v>-0.08253404554181669</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>remainder__Unnamed: 0</t>
+          <t>remainder__hours-per-week</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.06435789286451835</v>
+        <v>0.05053488950573273</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001159704182360501</v>
+        <v>0.01639665196093348</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06319818868215785</v>
+        <v>-0.03413823754479924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -560,51 +560,51 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.00137348251032371</v>
+        <v>0.06772259936458787</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03684263454847608</v>
+        <v>0.04715777860366377</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03546915203815237</v>
+        <v>-0.0205648207609241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cat__relationship_Husband</t>
+          <t>remainder__capital-loss</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.09743974345804829</v>
+        <v>0.05409087827420858</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06329899419279938</v>
+        <v>0.03899297170652361</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0341407492652489</v>
+        <v>-0.01509790656768497</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cat__relationship_Not-in-family</t>
+          <t>cat__sex_Male</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.02850705894524541</v>
+        <v>0.01949623308821469</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01051226330507753</v>
+        <v>0.008437550273667533</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01799479564016787</v>
+        <v>-0.01105868281454716</v>
       </c>
     </row>
     <row r="10">
@@ -617,469 +617,469 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.06162318925010689</v>
+        <v>0.05558627183525443</v>
       </c>
       <c r="D10" t="n">
-        <v>0.047083967111529</v>
+        <v>0.04466015117625562</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01453922213857789</v>
+        <v>-0.0109261206589988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cat__sex_Male</t>
+          <t>cat__relationship_Wife</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02671640669417859</v>
+        <v>0.01455893713713643</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01558809598308475</v>
+        <v>0.00709224935808228</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01112831071109384</v>
+        <v>-0.007466687779054153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cat__sex_Female</t>
+          <t>cat__marital-status_Divorced</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02506728567108256</v>
+        <v>0.01109840178674519</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01677875399656396</v>
+        <v>0.004001204457994265</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.008288531674518596</v>
+        <v>-0.007097197328750927</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>remainder__capital-loss</t>
+          <t>remainder__fnlwgt</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02223717505873028</v>
+        <v>0.01533847162483029</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02928374524548569</v>
+        <v>0.008831795068813916</v>
       </c>
       <c r="E13" t="n">
-        <v>0.007046570186755419</v>
+        <v>-0.006506676556016375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cat__marital-status_Divorced</t>
+          <t>cat__relationship_Unmarried</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.007987226365895985</v>
+        <v>0.008891195181444662</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003190203651266901</v>
+        <v>0.003569924759711632</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.004797022714629085</v>
+        <v>-0.005321270421733031</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cat__relationship_Wife</t>
+          <t>cat__workclass_Self-emp-inc</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01690702912556068</v>
+        <v>0.00579519470482405</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01403944868250426</v>
+        <v>0.001025849857627184</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.002867580443056425</v>
+        <v>-0.004769344847196866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cat__workclass_Self-emp-inc</t>
+          <t>cat__relationship_Own-child</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.00449445550715797</v>
+        <v>0.01474326338949372</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001710759038886555</v>
+        <v>0.01047331542058751</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.002783696468271415</v>
+        <v>-0.004269947968906215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cat__workclass_Private</t>
+          <t>cat__workclass_Self-emp-not-inc</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.002037497426919709</v>
+        <v>0.005204075272068441</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004312520656015235</v>
+        <v>0.001612190818254098</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002275023229095527</v>
+        <v>-0.003591884453814343</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cat__relationship_Own-child</t>
+          <t>cat__relationship_Not-in-family</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01940530070428794</v>
+        <v>0.01031587506794792</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01714389870642657</v>
+        <v>0.007559391003389629</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.002261401997861366</v>
+        <v>-0.002756484064558289</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cat__relationship_Unmarried</t>
+          <t>cat__workclass_Federal-gov</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.005498241949750023</v>
+        <v>0.003385694398369315</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007401764932551163</v>
+        <v>0.0008263157380721672</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001903522982801139</v>
+        <v>-0.002559378660297148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cat__workclass_Federal-gov</t>
+          <t>cat__marital-status_Separated</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.001731989053945057</v>
+        <v>0.001859817651685147</v>
       </c>
       <c r="D20" t="n">
-        <v>4.585258157292254e-05</v>
+        <v>0.0006653580603661992</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.001686136472372135</v>
+        <v>-0.001194459591318948</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cat__workclass_Self-emp-not-inc</t>
+          <t>cat__race_White</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.001810753209801973</v>
+        <v>0.00231467084129512</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0002842262680859461</v>
+        <v>0.001276741038837191</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.001526526941716027</v>
+        <v>-0.001037929802457929</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cat__race_White</t>
+          <t>cat__workclass_Local-gov</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0009325367740393857</v>
+        <v>0.001828975686381006</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0001856886034121509</v>
+        <v>0.0008863929281601649</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0007468481706272348</v>
+        <v>-0.0009425827582208408</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cat__race_Black</t>
+          <t>cat__race_Asian-Pac-Islander</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0005341534157882649</v>
+        <v>0.001341525109971589</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00101855743911696</v>
+        <v>0.0005993764893627783</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0004844040233286951</v>
+        <v>-0.0007421486206088103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cat__workclass_Local-gov</t>
+          <t>cat__race_Black</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.000142126967834838</v>
+        <v>0.001815892767027982</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0005942521375164804</v>
+        <v>0.00131361587701151</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0004521251696816424</v>
+        <v>-0.0005022768900164716</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cat__marital-status_Widowed</t>
+          <t>cat__workclass_State-gov</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0004154735751311256</v>
+        <v>0.001219352311348801</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001820842997984862</v>
+        <v>0.00075032158667966</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0002333892753326394</v>
+        <v>-0.0004690307246691415</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cat__relationship_Other-relative</t>
+          <t>cat__marital-status_Widowed</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0003660075300610153</v>
+        <v>0.001038985745217879</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001793840743680712</v>
+        <v>0.0006003143062751772</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0001866234556929441</v>
+        <v>-0.000438671438942702</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cat__workclass_State-gov</t>
+          <t>cat__relationship_Other-relative</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.000217479588839179</v>
+        <v>0.00125333727793845</v>
       </c>
       <c r="D27" t="n">
-        <v>4.833784023501696e-05</v>
+        <v>0.000825591864875668</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.000169141748604162</v>
+        <v>-0.0004277454130627824</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cat__race_Other</t>
+          <t>cat__workclass_Without-pay</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0001264154078028201</v>
+        <v>8.862756043572236e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>2.981673438688222e-05</v>
+        <v>0.0003941425157195898</v>
       </c>
       <c r="E28" t="n">
-        <v>-9.659867341593785e-05</v>
+        <v>0.0003055149552838674</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cat__race_Asian-Pac-Islander</t>
+          <t>cat__marital-status_Married-AF-spouse</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0001340864105514314</v>
+        <v>0.0004717675358055432</v>
       </c>
       <c r="D29" t="n">
-        <v>5.612211319379142e-05</v>
+        <v>0.0006690192730186323</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.796429735764e-05</v>
+        <v>0.0001972517372130891</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-AF-spouse</t>
+          <t>cat__race_Amer-Indian-Eskimo</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.376976628952936e-05</v>
+        <v>0.0006124232085665527</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001367177749633923</v>
+        <v>0.0004199682679075623</v>
       </c>
       <c r="E30" t="n">
-        <v>4.294800867386296e-05</v>
+        <v>-0.0001924549406589904</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cat__race_Amer-Indian-Eskimo</t>
+          <t>cat__workclass_Private</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0002077428256744559</v>
+        <v>0.002892350596911265</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0001813838659151381</v>
+        <v>0.003037917178690835</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.635895975931782e-05</v>
+        <v>0.00014556658177957</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cat__marital-status_Separated</t>
+          <t>cat__marital-status_Married-spouse-absent</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.000233380535406393</v>
+        <v>0.0005595165124362426</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0002088325728818335</v>
+        <v>0.0004464958292653138</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.454796252455952e-05</v>
+        <v>-0.0001130206831709288</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cat__workclass_Without-pay</t>
+          <t>cat__race_Other</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.28647933589289e-05</v>
+        <v>0.0004608873112719147</v>
       </c>
       <c r="D33" t="n">
-        <v>4.062614913187527e-05</v>
+        <v>0.0005654705408516862</v>
       </c>
       <c r="E33" t="n">
-        <v>1.776135577294637e-05</v>
+        <v>0.0001045832295797715</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-spouse-absent</t>
+          <t>cat__sex_Female</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0001759660394259766</v>
+        <v>0.009808658987760593</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000171781164385209</v>
+        <v>0.009823061552682316</v>
       </c>
       <c r="E34" t="n">
-        <v>-4.184875040767533e-06</v>
+        <v>1.440256492172241e-05</v>
       </c>
     </row>
   </sheetData>
